--- a/filmeExtrase.xlsx
+++ b/filmeExtrase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihnea\Documents\UiPath\ProiectIMDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA393D11-F516-408F-B1CF-02C991535D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46287A7F-34D1-4627-BDC7-24B061A2AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Filme" sheetId="2" r:id="rId1"/>
     <x:sheet name="Clasificare" sheetId="5" r:id="rId2"/>
+    <x:sheet name="Statistici" sheetId="6" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Nume</x:t>
   </x:si>
@@ -162,6 +163,144 @@
     <x:t>01/13/2026 13:47:48</x:t>
   </x:si>
   <x:si>
+    <x:t>01/15/2026 23:56:37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/15/2026 23:56:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/15/2026 23:57:12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/15/2026 23:57:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/15/2026 23:57:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:00:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:01:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:01:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:01:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:02:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:45:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:45:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:45:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:46:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:46:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:48:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:48:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:48:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:49:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:49:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:50:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:50:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:50:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:51:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:51:27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:53:34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:53:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:54:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:54:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 00:54:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:02:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:02:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:03:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:03:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:03:36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:10:40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:10:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:11:15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:11:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:11:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:16:29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:16:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:17:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:17:22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01/16/2026 01:17:40</x:t>
+  </x:si>
+  <x:si>
     <x:t>Clasificare</x:t>
   </x:si>
   <x:si>
@@ -169,6 +308,15 @@
   </x:si>
   <x:si>
     <x:t>Bun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RatingMin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RatingMax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UltimulRating</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -512,10 +660,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G6"/>
+  <x:dimension ref="A1:G41"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F10" sqref="F10"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="K19" sqref="K19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +672,7 @@
     <x:col min="6" max="6" width="18.570312" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -547,7 +695,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -570,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -593,7 +741,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -616,7 +764,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -639,7 +787,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -662,7 +810,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
+    <x:row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -685,7 +833,7 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
+    <x:row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -708,7 +856,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7">
+    <x:row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -731,7 +879,7 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
+    <x:row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -754,7 +902,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:7">
+    <x:row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -774,6 +922,1041 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A30" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A31" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A35" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A36" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A37" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A41" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="A42" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="A43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:11">
+      <x:c r="A53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:11">
+      <x:c r="A54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:11">
+      <x:c r="A55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:11">
+      <x:c r="A56" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
     </x:row>
@@ -791,13 +1974,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
+  <x:dimension ref="A1:E41"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="H18" sqref="H18"/>
+    </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -811,10 +1996,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -828,10 +2013,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -845,10 +2030,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -862,10 +2047,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -879,10 +2064,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -896,10 +2081,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -913,10 +2098,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -930,10 +2115,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -947,10 +2132,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -964,10 +2149,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -981,7 +2166,772 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>47</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A19" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A21" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A28" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A29" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A30" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A31" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A34" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A35" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A36" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A37" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A39" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A40" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A41" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8">
+      <x:c r="A42" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8">
+      <x:c r="A43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8">
+      <x:c r="A44" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8">
+      <x:c r="A45" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8">
+      <x:c r="A46" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8">
+      <x:c r="A47" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8">
+      <x:c r="A48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8">
+      <x:c r="A49" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:8">
+      <x:c r="A50" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:8">
+      <x:c r="A51" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:8">
+      <x:c r="A52" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8">
+      <x:c r="A53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:8">
+      <x:c r="A54" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:8">
+      <x:c r="A55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:8">
+      <x:c r="A56" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>93</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -991,4 +2941,116 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0F245BEB-BED6-46A3-9F74-ACE49039225A}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="I11" sqref="I11"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="7.425781" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="10" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.285156" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>6.8</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>6.9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>6.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>7.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>7.4</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>